--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD6E81B-1E97-4E41-B7ED-58B3264DDC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEB66B-7491-334C-AA09-183A9032F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -906,8 +906,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,7 +915,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="88.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FEB66B-7491-334C-AA09-183A9032F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844C524-96D6-EB40-9EFA-10EEC1BA6B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="179">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -471,6 +471,108 @@
   </si>
   <si>
     <t>adfind-pid0012</t>
+  </si>
+  <si>
+    <t>anydesk-pid0001</t>
+  </si>
+  <si>
+    <t>["t1105", "t1219"]</t>
+  </si>
+  <si>
+    <t>Anydesk.msi download</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0018</t>
+  </si>
+  <si>
+    <t>file_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['mimidrv.sys' OR 'mimilib.dll' OR 'mimispool.dll' OR 'mimikatz.exe' OR mimilove.exe'])</t>
+  </si>
+  <si>
+    <t>Mimikatz File IOCs</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0019</t>
+  </si>
+  <si>
+    <t>Mimikatz Installer Path</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(folder_path CONTAINS ['\mimikatz\Win32' OR '\mimikatz\x64\'  OR 'mimikatz'])</t>
+  </si>
+  <si>
+    <t>anydesk-pid0002</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS ['anydesk.msi' OR 'anydesk.exe' ])</t>
+  </si>
+  <si>
+    <t>AnyDesk File IOCs</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'anydesk.msi' ) AND (process_command_line CONTAINS ['http://' OR 'https://'])</t>
+  </si>
+  <si>
+    <t>rclone-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'rclone.exe' )</t>
+  </si>
+  <si>
+    <t>rclone-pid0002</t>
+  </si>
+  <si>
+    <t>Rclone Copy Config File Used For Connection Info</t>
+  </si>
+  <si>
+    <t>Rclone Copy Directory on C Drive Config File Used For Connection Info</t>
+  </si>
+  <si>
+    <t>rclone-pid0003</t>
+  </si>
+  <si>
+    <t>Rclone Copy To Mega Remote Folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND 'copy' AND 'mega' AND '--mega-user=' AND '--mega-pass=']) </t>
+  </si>
+  <si>
+    <t>Rclone Copy To Mega Remote Folder Without Config File</t>
+  </si>
+  <si>
+    <t>rclone-pid0004</t>
+  </si>
+  <si>
+    <t>rclone-pid0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND 'copy' AND 'mega']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND '--conf'  AND 'copy' AND 'C:']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND '--conf'  AND 'copy']) </t>
+  </si>
+  <si>
+    <t>pdq-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'pdq.exe' )</t>
+  </si>
+  <si>
+    <t>PDQ File IOCs</t>
+  </si>
+  <si>
+    <t>netscan-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS netscan.exe' )</t>
+  </si>
+  <si>
+    <t>Soft Perfect Network Scanner File IOCs</t>
   </si>
 </sst>
 </file>
@@ -566,8 +668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I46" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I46" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I57" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I57" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
     <sortCondition ref="A1:A46"/>
   </sortState>
@@ -903,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A46"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2203,6 +2305,241 @@
         <v>56</v>
       </c>
     </row>
+    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844C524-96D6-EB40-9EFA-10EEC1BA6B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EDAD2-416C-B646-859C-CC9C5C7039FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="206">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -182,15 +182,9 @@
     <t>["t1003.001"]</t>
   </si>
   <si>
-    <t>Procdump Minidump LSASS</t>
-  </si>
-  <si>
     <t>Procdump</t>
   </si>
   <si>
-    <t>Procdump Fulldump LSASS</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS [ '-accepteula' AND 'lsass' AND '-mm')]</t>
   </si>
   <si>
@@ -573,6 +567,93 @@
   </si>
   <si>
     <t>Soft Perfect Network Scanner File IOCs</t>
+  </si>
+  <si>
+    <t>psexec-pid0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '-accepteula']) </t>
+  </si>
+  <si>
+    <t>Psexec First Time Run on Machine</t>
+  </si>
+  <si>
+    <t>psexec-pid0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '-s' AND '\\']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '@' AND '.txt ']) </t>
+  </si>
+  <si>
+    <t>Psexec Used Text File List of Device to Connect to Multiple Machines</t>
+  </si>
+  <si>
+    <t>psexec-pid0003</t>
+  </si>
+  <si>
+    <t>Psexec Used CMD to Copy A File to Remote Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND 'cmd' AND '/c ' AND 'copy', AND '\\']) </t>
+  </si>
+  <si>
+    <t>psexec-pid0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND 'net user' AND '/add']) </t>
+  </si>
+  <si>
+    <t>Psexec Used to Add Local User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND 'net user' AND '/add' AND '/active:yes']) </t>
+  </si>
+  <si>
+    <t>Psexec Used to Add Local User And Activate Account</t>
+  </si>
+  <si>
+    <t>psexec-pid0005</t>
+  </si>
+  <si>
+    <t>psexec-pid0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '-d' AND'-s']) </t>
+  </si>
+  <si>
+    <t>Psexec Run Remote Process as System Account</t>
+  </si>
+  <si>
+    <t>Psexec Run Remote Process as System Account &amp; Deteched</t>
+  </si>
+  <si>
+    <t>psexec-pid0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND 'copy' AND '--ignore-exisiting' AND '--auto-confirm']) </t>
+  </si>
+  <si>
+    <t>Rclone Copy to Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['rclone' AND 'copy' AND '-q']) </t>
+  </si>
+  <si>
+    <t>Rclone Quite Copy</t>
+  </si>
+  <si>
+    <t>rclone-pid0006</t>
+  </si>
+  <si>
+    <t>rclone-pid0007</t>
+  </si>
+  <si>
+    <t>Procdump Fulldump LSASS (-ma)</t>
+  </si>
+  <si>
+    <t>Procdump Minidump LSASS (-mm)</t>
   </si>
 </sst>
 </file>
@@ -668,10 +749,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I57" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I57" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
-    <sortCondition ref="A1:A46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I66" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
@@ -1005,11 +1086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1056,10 +1137,10 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1085,10 +1166,10 @@
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1114,10 +1195,10 @@
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1143,10 +1224,10 @@
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1172,10 +1253,10 @@
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1201,10 +1282,10 @@
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1230,10 +1311,10 @@
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1259,10 +1340,10 @@
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1288,10 +1369,10 @@
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1300,7 +1381,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>30</v>
@@ -1317,10 +1398,10 @@
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1329,7 +1410,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1338,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -1346,10 +1427,10 @@
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1358,7 +1439,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -1367,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -1375,10 +1456,10 @@
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1387,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -1396,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1404,129 +1485,119 @@
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1535,25 +1606,25 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1562,25 +1633,25 @@
         <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1589,25 +1660,25 @@
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1616,25 +1687,25 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1643,25 +1714,25 @@
         <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1670,25 +1741,25 @@
         <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1697,25 +1768,25 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1724,25 +1795,25 @@
         <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1751,18 +1822,18 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -1778,18 +1849,18 @@
         <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -1805,18 +1876,18 @@
         <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -1832,25 +1903,25 @@
         <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1859,25 +1930,25 @@
         <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1886,25 +1957,25 @@
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1913,25 +1984,25 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1940,25 +2011,25 @@
         <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -1967,25 +2038,25 @@
         <v>11</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -1994,25 +2065,25 @@
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -2021,25 +2092,25 @@
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
@@ -2048,25 +2119,25 @@
         <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -2075,25 +2146,25 @@
         <v>11</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>11</v>
@@ -2102,25 +2173,25 @@
         <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>11</v>
@@ -2129,416 +2200,615 @@
         <v>11</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15EDAD2-416C-B646-859C-CC9C5C7039FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED489E-9976-8B43-BAE8-A9853CA11A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="301">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -65,24 +65,15 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=organizationalUnit' AND '-f'])</t>
   </si>
   <si>
-    <t>["t1482"]</t>
-  </si>
-  <si>
     <t>Pattern Representing Adfind AD Enumeration</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>Adfind  ObjectCategory Filter By OU Command</t>
   </si>
   <si>
     <t>Adfind Trustdmp Command</t>
   </si>
   <si>
-    <t>["t1018"]</t>
-  </si>
-  <si>
     <t>Adfind Dclist Command</t>
   </si>
   <si>
@@ -119,21 +110,9 @@
     <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=person' AND '-f'])</t>
   </si>
   <si>
-    <t>["t1087"]</t>
-  </si>
-  <si>
-    <t>["t1087.002"]</t>
-  </si>
-  <si>
     <t>Adfind ObjectCategory Filter By Person Command</t>
   </si>
   <si>
-    <t>["t1482", "t1087", "t1018"]</t>
-  </si>
-  <si>
-    <t>Adfind Command Output Redirected to File</t>
-  </si>
-  <si>
     <t>ad_enum-ou</t>
   </si>
   <si>
@@ -158,12 +137,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'gsecdump') OR (file_name CONTAINS 'gsecdump')</t>
   </si>
   <si>
-    <t>["t1003"]</t>
-  </si>
-  <si>
-    <t>["t1003.001", "t1003.002", "t1003.003"]</t>
-  </si>
-  <si>
     <t>Gsecdump Indicator</t>
   </si>
   <si>
@@ -179,9 +152,6 @@
     <t>creds-dump</t>
   </si>
   <si>
-    <t>["t1003.001"]</t>
-  </si>
-  <si>
     <t>Procdump</t>
   </si>
   <si>
@@ -452,9 +422,6 @@
     <t>Adfind Dcmodes Command</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS [ ' &gt; ' OR ' &gt;&gt; ']) AND (process_command_line MATCHES ANY adfind-pid)</t>
-  </si>
-  <si>
     <t>adfind-pid0011</t>
   </si>
   <si>
@@ -470,9 +437,6 @@
     <t>anydesk-pid0001</t>
   </si>
   <si>
-    <t>["t1105", "t1219"]</t>
-  </si>
-  <si>
     <t>Anydesk.msi download</t>
   </si>
   <si>
@@ -572,12 +536,6 @@
     <t>psexec-pid0001</t>
   </si>
   <si>
-    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '-accepteula']) </t>
-  </si>
-  <si>
-    <t>Psexec First Time Run on Machine</t>
-  </si>
-  <si>
     <t>psexec-pid0002</t>
   </si>
   <si>
@@ -654,6 +612,333 @@
   </si>
   <si>
     <t>Procdump Minidump LSASS (-mm)</t>
+  </si>
+  <si>
+    <t>netscan-pid0002</t>
+  </si>
+  <si>
+    <t>Soft Perfect Network Scanner Scan</t>
+  </si>
+  <si>
+    <t>t1046</t>
+  </si>
+  <si>
+    <t>netscan-pid0003</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netscan' AND '/range' ])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['netscan' AND '/hide' ])</t>
+  </si>
+  <si>
+    <t>Soft Perfect Network Scanner Run in Hidden Mode</t>
+  </si>
+  <si>
+    <t>Adfind  ObjectCategory Filter By OU Command Redicted to File</t>
+  </si>
+  <si>
+    <t>Adfind Trustdmp Command Redirected to File</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=organizationalUnit' AND '-f']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'trustdmp') AND (process_command_line CONTAINS ['-gcb' OR '-sc' OR '-gc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adfind Dclist Command Redirected to file </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'dclist') AND (process_command_line CONTAINS ['-gcb' OR '-sc' OR '-gc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>Adfind DomainList Command Redirected to File</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'domainList') AND (process_command_line CONTAINS ['-gcb' OR '-sc' OR '-gc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>Adfind Users_PwdNotReqD Command Redirected to File</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'users_pwdnotreqd') AND (process_command_line CONTAINS ['-gcb' OR '-sc' OR '-gc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'computers_pwdnotreqd') AND (process_command_line CONTAINS ['-gcb' OR '-sc' OR '-gc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>Adfind Computers_PwdNotReqD Redirected to File</t>
+  </si>
+  <si>
+    <t>Adfind ObjectCategory Filter By Computers Command Redirected to File</t>
+  </si>
+  <si>
+    <t>Adfind ObjectCategory Filter By Person Command Redirected to File</t>
+  </si>
+  <si>
+    <t>Adfind ObjectCategroy Filter By Subnet Redirected to File</t>
+  </si>
+  <si>
+    <t>Adfind Dcmodes Command Redirected to File</t>
+  </si>
+  <si>
+    <t>Adfind Adinfo Command Redirected to File</t>
+  </si>
+  <si>
+    <t>t1482</t>
+  </si>
+  <si>
+    <t>t1018</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=computer' AND '-f']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=person' AND '-f']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['dcmodes' AND '-sc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['objectcategory=subnet' AND '-f']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['adinfo' AND '-sc']) AND (process_command_line contains ['&gt;' OR '&gt;&gt;'])</t>
+  </si>
+  <si>
+    <t>t1087</t>
+  </si>
+  <si>
+    <t>t1087.002</t>
+  </si>
+  <si>
+    <t>adfind-pid0013</t>
+  </si>
+  <si>
+    <t>adfind-pid0014</t>
+  </si>
+  <si>
+    <t>adfind-pid0015</t>
+  </si>
+  <si>
+    <t>adfind-pid0016</t>
+  </si>
+  <si>
+    <t>adfind-pid0017</t>
+  </si>
+  <si>
+    <t>adfind-pid0018</t>
+  </si>
+  <si>
+    <t>adfind-pid0019</t>
+  </si>
+  <si>
+    <t>adfind-pid0020</t>
+  </si>
+  <si>
+    <t>adfind-pid0021</t>
+  </si>
+  <si>
+    <t>adfind-pid0022</t>
+  </si>
+  <si>
+    <t>t1003</t>
+  </si>
+  <si>
+    <t>t1003.001, t1003.002, t1003.003</t>
+  </si>
+  <si>
+    <t>t1105, t1219</t>
+  </si>
+  <si>
+    <t>t1003.001</t>
+  </si>
+  <si>
+    <t>sharpview-pid0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'sharpview') </t>
+  </si>
+  <si>
+    <t>ruebues-pid0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'kerberoast') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'rubeus') </t>
+  </si>
+  <si>
+    <t>Rubeus On Commandline</t>
+  </si>
+  <si>
+    <t>Rubeus Kerberoast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'aseproast') </t>
+  </si>
+  <si>
+    <t>ruebues-pid0002</t>
+  </si>
+  <si>
+    <t>ruebues-pid0003</t>
+  </si>
+  <si>
+    <t>Rubeus Aseproast</t>
+  </si>
+  <si>
+    <t>Rubeus Flag For Specific Accounts With Admin Privileges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['/ldapfilter' AND 'admincount=1') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['/format' AND 'hashcat']) </t>
+  </si>
+  <si>
+    <t>Rubeus FlagTo Spec ify Output for Hashcat</t>
+  </si>
+  <si>
+    <t>ruebues-pid0004</t>
+  </si>
+  <si>
+    <t>ruebues-pid0005</t>
+  </si>
+  <si>
+    <t>SharpView On Commandline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND 'accepteula']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['psexec' AND '-u' AND'-p']) </t>
+  </si>
+  <si>
+    <t>Psexec Used With Username &amp; Password</t>
+  </si>
+  <si>
+    <t>psexec-pid0008</t>
+  </si>
+  <si>
+    <t>psexec-pid0009</t>
+  </si>
+  <si>
+    <t>Psexec Auto Accept Eula</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['psexec' AND '.txt' AND'@C:' AND '.exe' AND 'cmd' AND '/c']) AND (process_command_line REGEX '@C:\&lt;share&gt;\file.txt')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psexec Executing Command on List of Machines </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['psexec' AND 'cmd' AND '/c']) AND (process_command_line REGEX ['c:\windows\temp\&lt;filename&gt; .exe'])</t>
+  </si>
+  <si>
+    <t>Psexec Execute EXE To Remote Targets</t>
+  </si>
+  <si>
+    <t>psexec-pid0010</t>
+  </si>
+  <si>
+    <t>ngrok-pid0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS 'ngrok') </t>
+  </si>
+  <si>
+    <t>Ngrok on CommandLine</t>
+  </si>
+  <si>
+    <t>ngrok-pid0002</t>
+  </si>
+  <si>
+    <t>Ngrok HTTP Tunnel</t>
+  </si>
+  <si>
+    <t>ngrok-pid0003</t>
+  </si>
+  <si>
+    <t>Ngrok TCP Tunnel</t>
+  </si>
+  <si>
+    <t>Ngrok TLS Tunnel</t>
+  </si>
+  <si>
+    <t>ngrok-pid0004</t>
+  </si>
+  <si>
+    <t>Ngrok RDP Tunnel</t>
+  </si>
+  <si>
+    <t>ngrok-pid0005</t>
+  </si>
+  <si>
+    <t>Ngrok SSH Tunnel</t>
+  </si>
+  <si>
+    <t>ngrok-pid0006</t>
+  </si>
+  <si>
+    <t>ngrok-pid0007</t>
+  </si>
+  <si>
+    <t>Ngrok Create Tunnel to Reserved Subdomain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'start' AND '--all']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'http' AND '-subdomain']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'tcp' AND '22']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'tcp' AND '3389']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'tls']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'tcp']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'http']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngrok Start All Tunnels From Config </t>
+  </si>
+  <si>
+    <t>ngrok-pid0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'start']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngrok Start Named Tunnel </t>
+  </si>
+  <si>
+    <t>ngrok-pid0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND '-region']) </t>
+  </si>
+  <si>
+    <t>Ngrok Tunnel To Region</t>
+  </si>
+  <si>
+    <t>ngrok-pid0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{case_insensitive}(process_command_line CONTAINS ['ngrok' AND 'authtoken']) </t>
+  </si>
+  <si>
+    <t>Ngrok Authtoken Saved to Config File</t>
+  </si>
+  <si>
+    <t>ngrok-pid0011</t>
   </si>
 </sst>
 </file>
@@ -749,10 +1034,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I66" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I66" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition ref="A1:A64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I98" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I98" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition ref="A1:A98"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
@@ -1086,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1137,1678 +1422,2246 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I50" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I51" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I53" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I98" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED489E-9976-8B43-BAE8-A9853CA11A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE5E1F-FDA0-8940-89A9-1AA862F7E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEE5E1F-FDA0-8940-89A9-1AA862F7E5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A6961-1749-AE41-AAE9-C3315B838ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A59F59-93A2-4341-B52C-7063B65B2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B7633-1480-3B4C-975E-8210CF4BEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -1343,8 +1343,8 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B7633-1480-3B4C-975E-8210CF4BEBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67331416-D822-3841-B5FA-874D5DB4C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="-21040" windowWidth="38160" windowHeight="19660" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="531">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Invoke Mimikatz</t>
   </si>
   <si>
-    <t>{case_insensitive}(process_command_line CONTAINS [ 'invoke' AND  'mimikatz'])</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS [ 'live' AND  'smb' AND 'dcsync'])</t>
   </si>
   <si>
@@ -912,6 +909,726 @@
   </si>
   <si>
     <t>ngrok-pid0011</t>
+  </si>
+  <si>
+    <t>dumpert-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'dumpert.exe')</t>
+  </si>
+  <si>
+    <t>Dumpert</t>
+  </si>
+  <si>
+    <t>teamvwr-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_path CONTAINS '\teamviewer\')</t>
+  </si>
+  <si>
+    <t>TeamViewer File Path</t>
+  </si>
+  <si>
+    <t>teamvwr-pid0002</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'teamviewer.exe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TeamViewer File Names </t>
+  </si>
+  <si>
+    <t>gmer-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(file_name EQUALS 'gmer.exe')</t>
+  </si>
+  <si>
+    <t>GMER File Name</t>
+  </si>
+  <si>
+    <t>powersploit-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-DLLInjection')</t>
+  </si>
+  <si>
+    <t>PowerSploit Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerSploit Indicator</t>
+  </si>
+  <si>
+    <t>powersploit-pid0002</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-ReflectivePEInjection')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0003</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Shellcode')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0004</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-WmiCommand')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0005</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-EncodedCommand')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0006</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-CompressedDll')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0007</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-EncryptedScript')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0008</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-UserPersisten ceOption')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0009</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-ElevatedPersistenceOption')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0010</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-Persistence')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0011</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Install-SSP')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0012</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-SecurityPackage'')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0013</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Find-AVSignature')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0014</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-TokenManipulation')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0015</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-CredentialInjection')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0016</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-NinjaCopy')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0018</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-Keystrokes')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0019</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-GPPPassword')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0020</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-GPPAutologon')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0021</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-TimedScreenshot')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0022</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'New-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0023</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0024</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Mount-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0025</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Remove-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0026</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-VaultCredential')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0027</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Out-Minidump')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0028</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-MicrophoneAudio')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0029</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Set-MasterBootRecord')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0030</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Set-CriticalProcess')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0031</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-System')</t>
+  </si>
+  <si>
+    <t>powersploit-pid0032</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'PowerUp')</t>
+  </si>
+  <si>
+    <t>powerview-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainTrust' OR 'Get-NetDomainTrust'] )</t>
+  </si>
+  <si>
+    <t>PowerView Domain Trust Cmdlets</t>
+  </si>
+  <si>
+    <t>PowerView Indicator</t>
+  </si>
+  <si>
+    <t>powerview-pid0002</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-ForestTrust' OR 'Get-NetForestTrust'] )</t>
+  </si>
+  <si>
+    <t>powerview-pid0003</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ Invoke-MapDomainTrust' OR 'Get-DomainTrustMapping'] )</t>
+  </si>
+  <si>
+    <t>powerview-pid0004</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPO' OR 'Get-NetGPO'])</t>
+  </si>
+  <si>
+    <t>PowerView GPO Enum Cmdlets</t>
+  </si>
+  <si>
+    <t>powerview-pid0005</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOLocalGroup' OR 'Get-NetGPOGroup'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0006</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOUserLocalGroupMapping' OR 'Find-GPOLocation'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0007</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOComputerLocalGroupMapping' OR 'Find-GPOComputerAdmin'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0008</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainPolicy')</t>
+  </si>
+  <si>
+    <t>powerview-pid0009</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainOU' OR 'Get-NetOU')</t>
+  </si>
+  <si>
+    <t>PowerView Domain Object Cmdlets</t>
+  </si>
+  <si>
+    <t>powerview-pid0010</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainController' OR 'Get-NetDomainController'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0011</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-Domain' OR 'Get-NetDomain'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0012</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-Forest' OR 'Get-NetForest'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0013</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-ForestDomain' OR 'Get-netForestDomain'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0014</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-ForestGlobalCatalog' OR 'Get-NetForestCatalog'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0015</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainObjectPropertyOutlier')</t>
+  </si>
+  <si>
+    <t>powerview-pid0016</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainObject' OR 'Get-ADObject'])</t>
+  </si>
+  <si>
+    <t>PowerView DomainObject Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0017</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Set-DomainObject' OR 'Set-ADObject'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0018</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainObjectAcl' OR 'GetObjectAcl'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0019</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Add-DomainObjectAcl' OR 'Add-ObjectAcl'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0020</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Find-InterestingDomainAcl' OR 'Invoke-ACLSScanner'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0021</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainComputer' OR 'Get-NetComputer'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0022</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainUser' OR 'Get-NetUser'])</t>
+  </si>
+  <si>
+    <t>PowerView User Object Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0023</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainForeignUser' OR 'Find-ForeignUser'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0024</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainForeignGroupMember' OR 'Find-ForeignGroup'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0025</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-DomainUser')</t>
+  </si>
+  <si>
+    <t>powerview-pid0026</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainGroup' OR 'Get-NetGroup'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0027</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-DomainGroup')</t>
+  </si>
+  <si>
+    <t>powerview-pid0028</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainGroupMember' OR 'Get-NetGroupMember'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0029</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-DomainGroupMember')</t>
+  </si>
+  <si>
+    <t>powerview-pid0030</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLocalGroup')</t>
+  </si>
+  <si>
+    <t>powerview-pid0031</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLocalGroupMember')</t>
+  </si>
+  <si>
+    <t>powerview-pid0032</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Test-AdminAccess' OR 'Invoke-CheckLocalAdminAccess'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0033</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-LocalAdminAccess')</t>
+  </si>
+  <si>
+    <t>powerview-pid0034</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Find-DomainLocalGroupMember' OR 'Invoke-EnumerateLocalAdmin'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0035</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainFileServer' OR 'Get-NetFileServer'])</t>
+  </si>
+  <si>
+    <t>PowerView Share Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0036</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainDFSShare' OR 'Get-DFSshare'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0037</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetShare')</t>
+  </si>
+  <si>
+    <t>powerview-pid0038</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Find-DomainShare' OR 'Invoke-ShareFinder'])</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-ShareFinder Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0039</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Kerberoast')</t>
+  </si>
+  <si>
+    <t>Powerview Kerberos AD Enum Cmdlets</t>
+  </si>
+  <si>
+    <t>powerview-pid0040</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainSPNTicket' OR 'Request-SPNTicket'])</t>
+  </si>
+  <si>
+    <t>powerview-pid0041</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainDNSZone')</t>
+  </si>
+  <si>
+    <t>PowerView Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0042</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainDNSRecord')</t>
+  </si>
+  <si>
+    <t>powerview-pid0043</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainUserEvent')</t>
+  </si>
+  <si>
+    <t>powerview-pid0044</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSite')</t>
+  </si>
+  <si>
+    <t>powerview-pid0045</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSubnet')</t>
+  </si>
+  <si>
+    <t>powerview-pid0046</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSID')</t>
+  </si>
+  <si>
+    <t>powerview-pid0047</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainManagedSecurityGroup')</t>
+  </si>
+  <si>
+    <t>powerview-pid0048</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLoggedon')</t>
+  </si>
+  <si>
+    <t>powerview-pid0049</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetSession')</t>
+  </si>
+  <si>
+    <t>powerview-pid0050</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-RegLoggedOn')</t>
+  </si>
+  <si>
+    <t>powerview-pid0051</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetRDPSession')</t>
+  </si>
+  <si>
+    <t>powerview-pid0052</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetComputerSiteName')</t>
+  </si>
+  <si>
+    <t>powerview-pid0053</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegProxy')</t>
+  </si>
+  <si>
+    <t>powerview-pid0054</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegLastLoggedOn')</t>
+  </si>
+  <si>
+    <t>powerview-pid0055</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegCachedRDPConnection')</t>
+  </si>
+  <si>
+    <t>powerview-pid0056</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegMountedDrive')</t>
+  </si>
+  <si>
+    <t>powerview-pid0057</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIProcess')</t>
+  </si>
+  <si>
+    <t>powerview-pid0058</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-InterestingFile')</t>
+  </si>
+  <si>
+    <t>powerview-pid0059</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS[ 'Invoke-UserHunter' OR 'Find-DomainUserLocation')</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-UserHunter Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-pid0060</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainProcess')</t>
+  </si>
+  <si>
+    <t>powerview-pid0061</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainUserEvent')</t>
+  </si>
+  <si>
+    <t>powerview-pid0062</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-InterestingDomainShareFile')</t>
+  </si>
+  <si>
+    <t>powerview-pid0063</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainLocalGroupMember')</t>
+  </si>
+  <si>
+    <t>powerview-pid0064</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Export-PowerViewCSV')</t>
+  </si>
+  <si>
+    <t>powerview-pid0065</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Resolve-IPAddress')</t>
+  </si>
+  <si>
+    <t>powerview-pid0066</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'ConvertTo-SID')</t>
+  </si>
+  <si>
+    <t>powerview-pid0067</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Convert-ADName')</t>
+  </si>
+  <si>
+    <t>powerview-pid0068</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'ConvertFrom-UACValue')</t>
+  </si>
+  <si>
+    <t>powerview-pid0069</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-RemoteConnection')</t>
+  </si>
+  <si>
+    <t>powerview-pid0070</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Remove-RemoteConnection')</t>
+  </si>
+  <si>
+    <t>powerview-pid0071</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-UserImpersonation')</t>
+  </si>
+  <si>
+    <t>powerview-pid0072</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-RevertToSelf')</t>
+  </si>
+  <si>
+    <t>powerview-pid0073</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-PathAcl')</t>
+  </si>
+  <si>
+    <t>smbabrute-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-SMBAutoBrute')</t>
+  </si>
+  <si>
+    <t>Invoke-SMBAutoBrute Pshell Script</t>
+  </si>
+  <si>
+    <t>pnightmare-pid0001</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Nightmare')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE-2021-1675 </t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'invoke-mimikatz')</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1721,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H98" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H98" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H98">
-    <sortCondition ref="A1:A98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H208" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H208" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H208">
+    <sortCondition ref="A1:A208"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
@@ -1340,11 +2057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1387,10 +2104,10 @@
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1399,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1411,10 +2128,10 @@
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1423,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1435,10 +2152,10 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1447,7 +2164,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -1459,10 +2176,10 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1471,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1483,10 +2200,10 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1505,10 +2222,10 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1527,10 +2244,10 @@
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1539,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -1551,10 +2268,10 @@
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1563,10 +2280,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>24</v>
@@ -1577,21 +2294,21 @@
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>9</v>
@@ -1599,21 +2316,21 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
@@ -1621,21 +2338,21 @@
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
@@ -1643,286 +2360,286 @@
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -1931,7 +2648,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
@@ -1941,1539 +2658,3947 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>530</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>527</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H73" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H74" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H75" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H88" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>180</v>
+        <v>343</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H92" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>234</v>
+        <v>346</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H96" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H208" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67331416-D822-3841-B5FA-874D5DB4C621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2C1B1-1EDA-D147-AB08-B706B7E79CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21040" windowWidth="38160" windowHeight="19660" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="532">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -1629,6 +1629,9 @@
   </si>
   <si>
     <t>{case_insensitive}(process_command_line CONTAINS  'invoke-mimikatz')</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -2060,8 +2063,8 @@
   <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2072,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.1640625" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
@@ -2110,7 +2113,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -2134,7 +2137,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2158,7 +2161,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -2182,7 +2185,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -2206,7 +2209,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -2228,7 +2231,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -2250,7 +2253,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -2274,7 +2277,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -2300,7 +2303,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>114</v>
@@ -2322,7 +2325,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>116</v>
@@ -2344,7 +2347,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>119</v>
@@ -2366,7 +2369,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>191</v>
@@ -2388,7 +2391,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>192</v>
@@ -2410,7 +2413,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>194</v>
@@ -2432,7 +2435,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>196</v>
@@ -2454,7 +2457,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>198</v>
@@ -2474,7 +2477,7 @@
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>199</v>
@@ -2494,7 +2497,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>208</v>
@@ -2516,7 +2519,7 @@
         <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>209</v>
@@ -2540,7 +2543,7 @@
         <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>211</v>
@@ -2560,7 +2563,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>210</v>
@@ -2580,7 +2583,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>212</v>

--- a/delta2/lib_p/dpid_htool.xlsx
+++ b/delta2/lib_p/dpid_htool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE2C1B1-1EDA-D147-AB08-B706B7E79CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F1DAD-F5F1-0143-B0F6-D632BDAF71D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="533">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -1632,6 +1632,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>xfer</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1685,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1724,20 +1730,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H208" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H208" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I208" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:I208" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H208">
     <sortCondition ref="A1:A208"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{23BCACB0-A0CB-184F-B2FE-4754E719E433}" name="delta_did" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{23BCACB0-A0CB-184F-B2FE-4754E719E433}" name="delta_did" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00C1E351-D38B-5948-B7E6-647B4543AB6E}" name="xfer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2060,11 +2067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2086,7 @@
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2104,8 +2111,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -2128,8 +2138,11 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2152,8 +2165,11 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -2176,8 +2192,11 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2200,8 +2219,11 @@
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2222,8 +2244,11 @@
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2244,8 +2269,11 @@
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2268,8 +2296,11 @@
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -2294,8 +2325,11 @@
       <c r="H9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2316,8 +2350,11 @@
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -2338,8 +2375,11 @@
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -2360,8 +2400,11 @@
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
@@ -2382,8 +2425,11 @@
         <v>189</v>
       </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
@@ -2404,8 +2450,11 @@
         <v>190</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>216</v>
       </c>
@@ -2426,8 +2475,11 @@
         <v>193</v>
       </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>217</v>
       </c>
@@ -2448,8 +2500,11 @@
         <v>195</v>
       </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -2468,8 +2523,11 @@
         <v>197</v>
       </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>219</v>
       </c>
@@ -2488,8 +2546,11 @@
         <v>200</v>
       </c>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>220</v>
       </c>
@@ -2510,8 +2571,11 @@
         <v>201</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
@@ -2534,8 +2598,11 @@
         <v>202</v>
       </c>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>222</v>
       </c>
@@ -2554,8 +2621,11 @@
         <v>203</v>
       </c>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2574,8 +2644,11 @@
         <v>204</v>
       </c>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>224</v>
       </c>
@@ -2594,8 +2667,11 @@
         <v>205</v>
       </c>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -2616,8 +2692,9 @@
         <v>123</v>
       </c>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>131</v>
       </c>
@@ -2636,8 +2713,9 @@
         <v>133</v>
       </c>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2660,8 +2738,9 @@
       <c r="H26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>291</v>
       </c>
@@ -2680,8 +2759,9 @@
         <v>293</v>
       </c>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>300</v>
       </c>
@@ -2700,8 +2780,9 @@
         <v>302</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2726,8 +2807,9 @@
       <c r="H29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -2748,8 +2830,9 @@
       <c r="H30" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
@@ -2770,8 +2853,9 @@
       <c r="H31" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2792,8 +2876,9 @@
       <c r="H32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -2814,8 +2899,9 @@
       <c r="H33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
@@ -2836,8 +2922,9 @@
       <c r="H34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2858,8 +2945,9 @@
       <c r="H35" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -2880,8 +2968,9 @@
       <c r="H36" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -2902,8 +2991,9 @@
       <c r="H37" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>88</v>
       </c>
@@ -2924,8 +3014,9 @@
       <c r="H38" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -2946,8 +3037,9 @@
       <c r="H39" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2968,8 +3060,9 @@
       <c r="H40" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -2990,8 +3083,9 @@
       <c r="H41" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -3012,8 +3106,9 @@
       <c r="H42" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -3034,8 +3129,9 @@
       <c r="H43" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -3056,8 +3152,9 @@
       <c r="H44" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>95</v>
       </c>
@@ -3078,8 +3175,9 @@
       <c r="H45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
@@ -3100,8 +3198,9 @@
       <c r="H46" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -3122,8 +3221,9 @@
       <c r="H47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -3144,8 +3244,9 @@
       <c r="H48" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -3166,8 +3267,9 @@
       <c r="H49" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -3188,8 +3290,9 @@
       <c r="H50" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -3210,8 +3313,9 @@
       <c r="H51" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3232,8 +3336,9 @@
       <c r="H52" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
@@ -3254,8 +3359,9 @@
       <c r="H53" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -3276,8 +3382,9 @@
       <c r="H54" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
@@ -3298,8 +3405,9 @@
       <c r="H55" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -3320,8 +3428,9 @@
       <c r="H56" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>152</v>
       </c>
@@ -3342,8 +3451,9 @@
         <v>154</v>
       </c>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
@@ -3364,8 +3474,9 @@
         <v>183</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>185</v>
       </c>
@@ -3386,8 +3497,9 @@
         <v>188</v>
       </c>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>258</v>
       </c>
@@ -3406,8 +3518,9 @@
         <v>260</v>
       </c>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>261</v>
       </c>
@@ -3426,8 +3539,9 @@
         <v>262</v>
       </c>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>263</v>
       </c>
@@ -3446,8 +3560,9 @@
         <v>264</v>
       </c>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>266</v>
       </c>
@@ -3466,8 +3581,9 @@
         <v>265</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>268</v>
       </c>
@@ -3486,8 +3602,9 @@
         <v>267</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>270</v>
       </c>
@@ -3506,8 +3623,9 @@
         <v>269</v>
       </c>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>271</v>
       </c>
@@ -3526,8 +3644,9 @@
         <v>272</v>
       </c>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>281</v>
       </c>
@@ -3546,8 +3665,9 @@
         <v>280</v>
       </c>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>284</v>
       </c>
@@ -3566,8 +3686,9 @@
         <v>283</v>
       </c>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>287</v>
       </c>
@@ -3586,8 +3707,9 @@
         <v>286</v>
       </c>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>290</v>
       </c>
@@ -3606,8 +3728,9 @@
         <v>289</v>
       </c>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
@@ -3626,8 +3749,9 @@
         <v>151</v>
       </c>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>527</v>
       </c>
@@ -3646,8 +3770,9 @@
         <v>529</v>
       </c>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>303</v>
       </c>
@@ -3668,8 +3793,9 @@
       <c r="H73" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>307</v>
       </c>
@@ -3690,8 +3816,9 @@
       <c r="H74" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>309</v>
       </c>
@@ -3712,8 +3839,9 @@
       <c r="H75" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>311</v>
       </c>
@@ -3734,8 +3862,9 @@
       <c r="H76" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>313</v>
       </c>
@@ -3756,8 +3885,9 @@
       <c r="H77" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>315</v>
       </c>
@@ -3778,8 +3908,9 @@
       <c r="H78" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>317</v>
       </c>
@@ -3800,8 +3931,9 @@
       <c r="H79" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>319</v>
       </c>
@@ -3822,8 +3954,9 @@
       <c r="H80" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>321</v>
       </c>
@@ -3844,8 +3977,9 @@
       <c r="H81" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>323</v>
       </c>
@@ -3866,8 +4000,9 @@
       <c r="H82" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>325</v>
       </c>
@@ -3888,8 +4023,9 @@
       <c r="H83" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>327</v>
       </c>
@@ -3910,8 +4046,9 @@
       <c r="H84" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>329</v>
       </c>
@@ -3932,8 +4069,9 @@
       <c r="H85" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>331</v>
       </c>
@@ -3954,8 +4092,9 @@
       <c r="H86" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>333</v>
       </c>
@@ -3976,8 +4115,9 @@
       <c r="H87" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>335</v>
       </c>
@@ -3998,8 +4138,9 @@
       <c r="H88" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>337</v>
       </c>
@@ -4020,8 +4161,9 @@
       <c r="H89" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>339</v>
       </c>
@@ -4042,8 +4184,9 @@
       <c r="H90" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>341</v>
       </c>
@@ -4064,8 +4207,9 @@
       <c r="H91" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>343</v>
       </c>
@@ -4086,8 +4230,9 @@
       <c r="H92" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>345</v>
       </c>
@@ -4108,8 +4253,9 @@
       <c r="H93" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>347</v>
       </c>
@@ -4130,8 +4276,9 @@
       <c r="H94" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>349</v>
       </c>
@@ -4152,8 +4299,9 @@
       <c r="H95" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>351</v>
       </c>
@@ -4174,8 +4322,9 @@
       <c r="H96" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>353</v>
       </c>
@@ -4196,8 +4345,9 @@
       <c r="H97" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>355</v>
       </c>
@@ -4218,8 +4368,9 @@
       <c r="H98" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>357</v>
       </c>
@@ -4240,8 +4391,9 @@
       <c r="H99" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>359</v>
       </c>
@@ -4262,8 +4414,9 @@
       <c r="H100" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>361</v>
       </c>
@@ -4284,8 +4437,9 @@
       <c r="H101" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>363</v>
       </c>
@@ -4306,8 +4460,9 @@
       <c r="H102" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>365</v>
       </c>
@@ -4328,8 +4483,9 @@
       <c r="H103" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>367</v>
       </c>
@@ -4350,8 +4506,9 @@
       <c r="H104" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>371</v>
       </c>
@@ -4372,8 +4529,9 @@
       <c r="H105" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>373</v>
       </c>
@@ -4394,8 +4552,9 @@
       <c r="H106" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>375</v>
       </c>
@@ -4416,8 +4575,9 @@
       <c r="H107" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>378</v>
       </c>
@@ -4438,8 +4598,9 @@
       <c r="H108" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>380</v>
       </c>
@@ -4460,8 +4621,9 @@
       <c r="H109" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>382</v>
       </c>
@@ -4482,8 +4644,9 @@
       <c r="H110" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>384</v>
       </c>
@@ -4504,8 +4667,9 @@
       <c r="H111" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>386</v>
       </c>
@@ -4526,8 +4690,9 @@
       <c r="H112" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>389</v>
       </c>
@@ -4548,8 +4713,9 @@
       <c r="H113" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>391</v>
       </c>
@@ -4570,8 +4736,9 @@
       <c r="H114" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>393</v>
       </c>
@@ -4592,8 +4759,9 @@
       <c r="H115" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>395</v>
       </c>
@@ -4614,8 +4782,9 @@
       <c r="H116" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>397</v>
       </c>
@@ -4636,8 +4805,9 @@
       <c r="H117" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>399</v>
       </c>
@@ -4658,8 +4828,9 @@
       <c r="H118" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>401</v>
       </c>
@@ -4680,8 +4851,9 @@
       <c r="H119" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>404</v>
       </c>
@@ -4702,8 +4874,9 @@
       <c r="H120" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>406</v>
       </c>
@@ -4724,8 +4897,9 @@
       <c r="H121" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>408</v>
       </c>
@@ -4746,8 +4920,9 @@
       <c r="H122" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>410</v>
       </c>
@@ -4768,8 +4943,9 @@
       <c r="H123" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>412</v>
       </c>
@@ -4790,8 +4966,9 @@
       <c r="H124" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>414</v>
       </c>
@@ -4812,8 +4989,9 @@
       <c r="H125" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>417</v>
       </c>
@@ -4834,8 +5012,9 @@
       <c r="H126" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>419</v>
       </c>
@@ -4856,8 +5035,9 @@
       <c r="H127" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>421</v>
       </c>
@@ -4878,8 +5058,9 @@
       <c r="H128" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>423</v>
       </c>
@@ -4900,8 +5081,9 @@
       <c r="H129" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>425</v>
       </c>
@@ -4922,8 +5104,9 @@
       <c r="H130" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>427</v>
       </c>
@@ -4944,8 +5127,9 @@
       <c r="H131" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>429</v>
       </c>
@@ -4966,8 +5150,9 @@
       <c r="H132" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>431</v>
       </c>
@@ -4988,8 +5173,9 @@
       <c r="H133" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>433</v>
       </c>
@@ -5010,8 +5196,9 @@
       <c r="H134" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>435</v>
       </c>
@@ -5032,8 +5219,9 @@
       <c r="H135" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>437</v>
       </c>
@@ -5054,8 +5242,9 @@
       <c r="H136" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>439</v>
       </c>
@@ -5076,8 +5265,9 @@
       <c r="H137" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>441</v>
       </c>
@@ -5098,8 +5288,9 @@
       <c r="H138" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>444</v>
       </c>
@@ -5120,8 +5311,9 @@
       <c r="H139" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>446</v>
       </c>
@@ -5142,8 +5334,9 @@
       <c r="H140" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>448</v>
       </c>
@@ -5164,8 +5357,9 @@
       <c r="H141" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>451</v>
       </c>
@@ -5186,8 +5380,9 @@
       <c r="H142" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>454</v>
       </c>
@@ -5208,8 +5403,9 @@
       <c r="H143" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>456</v>
       </c>
@@ -5230,8 +5426,9 @@
       <c r="H144" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>459</v>
       </c>
@@ -5252,8 +5449,9 @@
       <c r="H145" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>461</v>
       </c>
@@ -5274,8 +5472,9 @@
       <c r="H146" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>463</v>
       </c>
@@ -5296,8 +5495,9 @@
       <c r="H147" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>465</v>
       </c>
@@ -5318,8 +5518,9 @@
       <c r="H148" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>467</v>
       </c>
@@ -5340,8 +5541,9 @@
       <c r="H149" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>469</v>
       </c>
@@ -5362,8 +5564,9 @@
       <c r="H150" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>471</v>
       </c>
@@ -5384,8 +5587,9 @@
       <c r="H151" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>473</v>
       </c>
@@ -5406,8 +5610,9 @@
       <c r="H152" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>475</v>
       </c>
@@ -5428,8 +5633,9 @@
       <c r="H153" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>477</v>
       </c>
@@ -5450,8 +5656,9 @@
       <c r="H154" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>479</v>
       </c>
@@ -5472,8 +5679,9 @@
       <c r="H155" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>481</v>
       </c>
@@ -5494,8 +5702,9 @@
       <c r="H156" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>483</v>
       </c>
@@ -5516,8 +5725,9 @@
       <c r="H157" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>485</v>
       </c>
@@ -5538,8 +5748,9 @@
       <c r="H158" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -5560,8 +5771,9 @@
       <c r="H159" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>489</v>
       </c>
@@ -5582,8 +5794,9 @@
       <c r="H160" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
@@ -5604,8 +5817,9 @@
       <c r="H161" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>493</v>
       </c>
@@ -5626,8 +5840,9 @@
       <c r="H162" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>496</v>
       </c>
@@ -5648,8 +5863,9 @@
       <c r="H163" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>498</v>
       </c>
@@ -5670,8 +5886,9 @@
       <c r="H164" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>500</v>
       </c>
@@ -5692,8 +5909,9 @@
       <c r="H165" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>502</v>
       </c>
@@ -5714,8 +5932,9 @@
       <c r="H166" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>504</v>
       </c>
@@ -5736,8 +5955,9 @@
       <c r="H167" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>506</v>
       </c>
@@ -5758,8 +5978,9 @@
       <c r="H168" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>508</v>
       </c>
@@ -5780,8 +6001,9 @@
       <c r="H169" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>510</v>
       </c>
@@ -5802,8 +6024,9 @@
       <c r="H170" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>512</v>
       </c>
@@ -5824,8 +6047,9 @@
       <c r="H171" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>514</v>
       </c>
@@ -5846,8 +6070,9 @@
       <c r="H172" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>516</v>
       </c>
@@ -5868,8 +6093,9 @@
       <c r="H173" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>518</v>
       </c>
@@ -5890,8 +6116,9 @@
       <c r="H174" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>520</v>
       </c>
@@ -5912,8 +6139,9 @@
       <c r="H175" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>522</v>
       </c>
@@ -5934,8 +6162,9 @@
       <c r="H176" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>82</v>
       </c>
@@ -5960,8 +6189,9 @@
       <c r="H177" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>83</v>
       </c>
@@ -5986,8 +6216,9 @@
       <c r="H178" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>84</v>
       </c>
@@ -6012,8 +6243,9 @@
       <c r="H179" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>155</v>
       </c>
@@ -6032,8 +6264,9 @@
         <v>252</v>
       </c>
       <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>156</v>
       </c>
@@ -6052,8 +6285,9 @@
         <v>171</v>
       </c>
       <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>160</v>
       </c>
@@ -6072,8 +6306,9 @@
         <v>159</v>
       </c>
       <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>163</v>
       </c>
@@ -6092,8 +6327,9 @@
         <v>161</v>
       </c>
       <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>168</v>
       </c>
@@ -6112,8 +6348,9 @@
         <v>165</v>
       </c>
       <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>169</v>
       </c>
@@ -6132,8 +6369,9 @@
         <v>167</v>
       </c>
       <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>173</v>
       </c>
@@ -6152,8 +6390,9 @@
         <v>172</v>
       </c>
       <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>250</v>
       </c>
@@ -6172,8 +6411,9 @@
         <v>249</v>
       </c>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>251</v>
       </c>
@@ -6192,8 +6432,9 @@
         <v>254</v>
       </c>
       <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>257</v>
       </c>
@@ -6212,8 +6453,9 @@
         <v>256</v>
       </c>
       <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>85</v>
       </c>
@@ -6238,8 +6480,9 @@
       <c r="H190" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>86</v>
       </c>
@@ -6260,8 +6503,9 @@
       <c r="H191" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>87</v>
       </c>
@@ -6284,8 +6528,9 @@
       <c r="H192" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>135</v>
       </c>
@@ -6302,8 +6547,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>137</v>
       </c>
@@ -6322,8 +6568,9 @@
         <v>138</v>
       </c>
       <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>140</v>
       </c>
@@ -6342,8 +6589,9 @@
         <v>139</v>
       </c>
       <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>144</v>
       </c>
@@ -6362,8 +6610,9 @@
         <v>141</v>
       </c>
       <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>145</v>
       </c>
@@ -6382,8 +6631,9 @@
         <v>143</v>
       </c>
       <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>178</v>
       </c>
@@ -6402,8 +6652,9 @@
         <v>177</v>
       </c>
       <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>179</v>
       </c>
@@ -6422,8 +6673,9 @@
         <v>175</v>
       </c>
       <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>231</v>
       </c>
@@ -6442,8 +6694,9 @@
         <v>234</v>
       </c>
       <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>237</v>
       </c>
@@ -6462,8 +6715,9 @@
         <v>235</v>
       </c>
       <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>238</v>
       </c>
@@ -6482,8 +6736,9 @@
         <v>239</v>
       </c>
       <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>244</v>
       </c>
@@ -6502,8 +6757,9 @@
         <v>240</v>
       </c>
       <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>245</v>
       </c>
@@ -6522,8 +6778,9 @@
         <v>243</v>
       </c>
       <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>229</v>
       </c>
@@ -6542,8 +6799,9 @@
         <v>246</v>
       </c>
       <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>524</v>
       </c>
@@ -6562,8 +6820,9 @@
         <v>526</v>
       </c>
       <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>294</v>
       </c>
@@ -6582,8 +6841,9 @@
         <v>296</v>
       </c>
       <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>297</v>
       </c>
@@ -6602,6 +6862,7 @@
         <v>299</v>
       </c>
       <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
